--- a/data/processed/Excels/X_test_sel_k6.xlsx
+++ b/data/processed/Excels/X_test_sel_k6.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Insulin</t>
+          <t>BloodPressure</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>98</v>
       </c>
       <c r="C2" t="n">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
         <v>34</v>
@@ -493,7 +493,7 @@
         <v>112</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
         <v>35.7</v>
@@ -513,7 +513,7 @@
         <v>108</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
         <v>30.8</v>
@@ -533,7 +533,7 @@
         <v>107</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
         <v>24.6</v>
@@ -553,7 +553,7 @@
         <v>136</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
         <v>29.9</v>
@@ -573,7 +573,7 @@
         <v>103</v>
       </c>
       <c r="C7" t="n">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
         <v>37.7</v>
@@ -593,7 +593,7 @@
         <v>71</v>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D8" t="n">
         <v>20.4</v>
@@ -613,7 +613,7 @@
         <v>117</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
         <v>33.8</v>
@@ -633,7 +633,7 @@
         <v>154</v>
       </c>
       <c r="C10" t="n">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D10" t="n">
         <v>31.3</v>
@@ -653,7 +653,7 @@
         <v>147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D11" t="n">
         <v>33.7</v>
@@ -673,7 +673,7 @@
         <v>111</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
         <v>27.5</v>
@@ -693,7 +693,7 @@
         <v>179</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D13" t="n">
         <v>34.2</v>
@@ -713,7 +713,7 @@
         <v>148</v>
       </c>
       <c r="C14" t="n">
-        <v>318</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
         <v>30.9</v>
@@ -733,7 +733,7 @@
         <v>96</v>
       </c>
       <c r="C15" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D15" t="n">
         <v>33.6</v>
@@ -753,7 +753,7 @@
         <v>88</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D16" t="n">
         <v>28.4</v>
@@ -773,7 +773,7 @@
         <v>125</v>
       </c>
       <c r="C17" t="n">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>33.3</v>
@@ -793,7 +793,7 @@
         <v>84</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D18" t="n">
         <v>37.2</v>
@@ -813,7 +813,7 @@
         <v>86</v>
       </c>
       <c r="C19" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" t="n">
         <v>30.2</v>
@@ -833,7 +833,7 @@
         <v>183</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D20" t="n">
         <v>28.4</v>
@@ -853,7 +853,7 @@
         <v>140</v>
       </c>
       <c r="C21" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
         <v>42.6</v>
@@ -873,7 +873,7 @@
         <v>104</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D22" t="n">
         <v>28.8</v>
@@ -893,7 +893,7 @@
         <v>88</v>
       </c>
       <c r="C23" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" t="n">
         <v>32</v>
@@ -913,7 +913,7 @@
         <v>106</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D24" t="n">
         <v>36.6</v>
@@ -933,7 +933,7 @@
         <v>96</v>
       </c>
       <c r="C25" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D25" t="n">
         <v>33.2</v>
@@ -953,7 +953,7 @@
         <v>129</v>
       </c>
       <c r="C26" t="n">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D26" t="n">
         <v>35.9</v>
@@ -973,7 +973,7 @@
         <v>184</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D27" t="n">
         <v>35.5</v>
@@ -993,7 +993,7 @@
         <v>109</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D28" t="n">
         <v>25</v>
@@ -1013,7 +1013,7 @@
         <v>100</v>
       </c>
       <c r="C29" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D29" t="n">
         <v>19.5</v>
@@ -1033,7 +1033,7 @@
         <v>102</v>
       </c>
       <c r="C30" t="n">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D30" t="n">
         <v>45.5</v>
@@ -1053,7 +1053,7 @@
         <v>89</v>
       </c>
       <c r="C31" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D31" t="n">
         <v>30.4</v>
@@ -1073,10 +1073,10 @@
         <v>162</v>
       </c>
       <c r="C32" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D32" t="n">
-        <v>53.2</v>
+        <v>50.55</v>
       </c>
       <c r="E32" t="n">
         <v>0.759</v>
@@ -1093,7 +1093,7 @@
         <v>146</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D33" t="n">
         <v>38.5</v>
@@ -1102,7 +1102,7 @@
         <v>0.52</v>
       </c>
       <c r="F33" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="34">
@@ -1113,7 +1113,7 @@
         <v>184</v>
       </c>
       <c r="C34" t="n">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="D34" t="n">
         <v>37</v>
@@ -1133,7 +1133,7 @@
         <v>167</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
         <v>32.3</v>
@@ -1153,7 +1153,7 @@
         <v>109</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D36" t="n">
         <v>42.7</v>
@@ -1173,7 +1173,7 @@
         <v>152</v>
       </c>
       <c r="C37" t="n">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="D37" t="n">
         <v>34.2</v>
@@ -1193,7 +1193,7 @@
         <v>197</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D38" t="n">
         <v>34.7</v>
@@ -1213,7 +1213,7 @@
         <v>109</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D39" t="n">
         <v>32.5</v>
@@ -1233,7 +1233,7 @@
         <v>121</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D40" t="n">
         <v>26.5</v>
@@ -1253,7 +1253,7 @@
         <v>131</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
         <v>43.2</v>
@@ -1273,7 +1273,7 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D42" t="n">
         <v>27.8</v>
@@ -1293,7 +1293,7 @@
         <v>135</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D43" t="n">
         <v>26.7</v>
@@ -1313,7 +1313,7 @@
         <v>109</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D44" t="n">
         <v>36</v>
@@ -1333,7 +1333,7 @@
         <v>104</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D45" t="n">
         <v>31.2</v>
@@ -1353,7 +1353,7 @@
         <v>92</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D46" t="n">
         <v>19.9</v>
@@ -1373,7 +1373,7 @@
         <v>158</v>
       </c>
       <c r="C47" t="n">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="D47" t="n">
         <v>31.6</v>
@@ -1393,13 +1393,13 @@
         <v>111</v>
       </c>
       <c r="C48" t="n">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="D48" t="n">
         <v>37.1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="F48" t="n">
         <v>56</v>
@@ -1413,7 +1413,7 @@
         <v>95</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D49" t="n">
         <v>37.7</v>
@@ -1433,7 +1433,7 @@
         <v>112</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D50" t="n">
         <v>23.6</v>
@@ -1453,7 +1453,7 @@
         <v>173</v>
       </c>
       <c r="C51" t="n">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="D51" t="n">
         <v>46.5</v>
@@ -1473,7 +1473,7 @@
         <v>94</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D52" t="n">
         <v>24.7</v>
@@ -1493,7 +1493,7 @@
         <v>145</v>
       </c>
       <c r="C53" t="n">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="D53" t="n">
         <v>30.3</v>
@@ -1513,7 +1513,7 @@
         <v>140</v>
       </c>
       <c r="C54" t="n">
-        <v>325</v>
+        <v>82</v>
       </c>
       <c r="D54" t="n">
         <v>39.2</v>
@@ -1533,7 +1533,7 @@
         <v>134</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D55" t="n">
         <v>28.9</v>
@@ -1553,7 +1553,7 @@
         <v>139</v>
       </c>
       <c r="C56" t="n">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="D56" t="n">
         <v>22.1</v>
@@ -1573,7 +1573,7 @@
         <v>74</v>
       </c>
       <c r="C57" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D57" t="n">
         <v>29.7</v>
@@ -1593,7 +1593,7 @@
         <v>158</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D58" t="n">
         <v>29.8</v>
@@ -1613,10 +1613,10 @@
         <v>80</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="E59" t="n">
         <v>0.174</v>
@@ -1633,7 +1633,7 @@
         <v>121</v>
       </c>
       <c r="C60" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D60" t="n">
         <v>39.1</v>
@@ -1653,7 +1653,7 @@
         <v>168</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D61" t="n">
         <v>32.9</v>
@@ -1673,7 +1673,7 @@
         <v>154</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D62" t="n">
         <v>32.4</v>
@@ -1693,7 +1693,7 @@
         <v>122</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D63" t="n">
         <v>36.8</v>
@@ -1713,7 +1713,7 @@
         <v>129</v>
       </c>
       <c r="C64" t="n">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c r="D64" t="n">
         <v>19.6</v>
@@ -1733,7 +1733,7 @@
         <v>92</v>
       </c>
       <c r="C65" t="n">
-        <v>258</v>
+        <v>62</v>
       </c>
       <c r="D65" t="n">
         <v>27.6</v>
@@ -1753,7 +1753,7 @@
         <v>84</v>
       </c>
       <c r="C66" t="n">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D66" t="n">
         <v>38.2</v>
@@ -1773,7 +1773,7 @@
         <v>147</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D67" t="n">
         <v>42.8</v>
@@ -1793,7 +1793,7 @@
         <v>81</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D68" t="n">
         <v>27.7</v>
@@ -1813,7 +1813,7 @@
         <v>137</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D69" t="n">
         <v>48.8</v>
@@ -1833,7 +1833,7 @@
         <v>104</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D70" t="n">
         <v>18.4</v>
@@ -1853,7 +1853,7 @@
         <v>172</v>
       </c>
       <c r="C71" t="n">
-        <v>579</v>
+        <v>68</v>
       </c>
       <c r="D71" t="n">
         <v>42.4</v>
@@ -1873,7 +1873,7 @@
         <v>150</v>
       </c>
       <c r="C72" t="n">
-        <v>342</v>
+        <v>66</v>
       </c>
       <c r="D72" t="n">
         <v>34.7</v>
@@ -1893,7 +1893,7 @@
         <v>83</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D73" t="n">
         <v>29.3</v>
@@ -1913,7 +1913,7 @@
         <v>91</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D74" t="n">
         <v>24.2</v>
@@ -1933,7 +1933,7 @@
         <v>95</v>
       </c>
       <c r="C75" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="D75" t="n">
         <v>37.4</v>
@@ -1953,7 +1953,7 @@
         <v>103</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D76" t="n">
         <v>24.3</v>
@@ -1973,7 +1973,7 @@
         <v>103</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D77" t="n">
         <v>39.2</v>
@@ -1993,7 +1993,7 @@
         <v>105</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D78" t="n">
         <v>23.3</v>
@@ -2013,7 +2013,7 @@
         <v>96</v>
       </c>
       <c r="C79" t="n">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="D79" t="n">
         <v>24.7</v>
@@ -2033,7 +2033,7 @@
         <v>117</v>
       </c>
       <c r="C80" t="n">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="D80" t="n">
         <v>30.8</v>
@@ -2053,7 +2053,7 @@
         <v>110</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D81" t="n">
         <v>37.6</v>
@@ -2073,7 +2073,7 @@
         <v>159</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D82" t="n">
         <v>30.4</v>
@@ -2113,7 +2113,7 @@
         <v>75</v>
       </c>
       <c r="C84" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D84" t="n">
         <v>29.7</v>
@@ -2133,7 +2133,7 @@
         <v>135</v>
       </c>
       <c r="C85" t="n">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D85" t="n">
         <v>40.6</v>
@@ -2153,7 +2153,7 @@
         <v>119</v>
       </c>
       <c r="C86" t="n">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D86" t="n">
         <v>34.9</v>
@@ -2173,7 +2173,7 @@
         <v>187</v>
       </c>
       <c r="C87" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="D87" t="n">
         <v>36.4</v>
@@ -2193,7 +2193,7 @@
         <v>152</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D88" t="n">
         <v>50</v>
@@ -2213,7 +2213,7 @@
         <v>124</v>
       </c>
       <c r="C89" t="n">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="D89" t="n">
         <v>32.9</v>
@@ -2233,7 +2233,7 @@
         <v>99</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D90" t="n">
         <v>29</v>
@@ -2253,7 +2253,7 @@
         <v>87</v>
       </c>
       <c r="C91" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D91" t="n">
         <v>32.7</v>
@@ -2273,7 +2273,7 @@
         <v>93</v>
       </c>
       <c r="C92" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D92" t="n">
         <v>28.7</v>
@@ -2293,7 +2293,7 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D93" t="n">
         <v>42.2</v>
@@ -2313,10 +2313,10 @@
         <v>74</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="E94" t="n">
         <v>0.102</v>
@@ -2333,7 +2333,7 @@
         <v>120</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D95" t="n">
         <v>30</v>
@@ -2353,7 +2353,7 @@
         <v>123</v>
       </c>
       <c r="C96" t="n">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="D96" t="n">
         <v>42.1</v>
@@ -2373,7 +2373,7 @@
         <v>144</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D97" t="n">
         <v>41.3</v>
@@ -2393,7 +2393,7 @@
         <v>106</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D98" t="n">
         <v>31.2</v>
@@ -2413,7 +2413,7 @@
         <v>83</v>
       </c>
       <c r="C99" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D99" t="n">
         <v>36.8</v>
@@ -2433,7 +2433,7 @@
         <v>177</v>
       </c>
       <c r="C100" t="n">
-        <v>478</v>
+        <v>60</v>
       </c>
       <c r="D100" t="n">
         <v>34.6</v>
@@ -2453,7 +2453,7 @@
         <v>62</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D101" t="n">
         <v>32.6</v>
@@ -2473,7 +2473,7 @@
         <v>164</v>
       </c>
       <c r="C102" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D102" t="n">
         <v>32.8</v>
@@ -2493,7 +2493,7 @@
         <v>78</v>
       </c>
       <c r="C103" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="D103" t="n">
         <v>36.9</v>
@@ -2513,7 +2513,7 @@
         <v>126</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D104" t="n">
         <v>43.4</v>
@@ -2533,7 +2533,7 @@
         <v>146</v>
       </c>
       <c r="C105" t="n">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="D105" t="n">
         <v>38.2</v>
@@ -2553,7 +2553,7 @@
         <v>158</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D106" t="n">
         <v>32.9</v>
@@ -2573,7 +2573,7 @@
         <v>112</v>
       </c>
       <c r="C107" t="n">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="D107" t="n">
         <v>38.4</v>
@@ -2593,7 +2593,7 @@
         <v>141</v>
       </c>
       <c r="C108" t="n">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="D108" t="n">
         <v>25.4</v>
@@ -2613,7 +2613,7 @@
         <v>173</v>
       </c>
       <c r="C109" t="n">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="D109" t="n">
         <v>33.8</v>
@@ -2633,13 +2633,13 @@
         <v>80</v>
       </c>
       <c r="C110" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D110" t="n">
         <v>34.2</v>
       </c>
       <c r="E110" t="n">
-        <v>1.292</v>
+        <v>1.2</v>
       </c>
       <c r="F110" t="n">
         <v>27</v>
@@ -2653,7 +2653,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D111" t="n">
         <v>35.9</v>
@@ -2673,7 +2673,7 @@
         <v>97</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D112" t="n">
         <v>28.2</v>
@@ -2693,7 +2693,7 @@
         <v>175</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D113" t="n">
         <v>22.9</v>
@@ -2713,10 +2713,10 @@
         <v>105</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="E114" t="n">
         <v>0.305</v>
@@ -2733,7 +2733,7 @@
         <v>167</v>
       </c>
       <c r="C115" t="n">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="D115" t="n">
         <v>37.6</v>
@@ -2753,7 +2753,7 @@
         <v>112</v>
       </c>
       <c r="C116" t="n">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="D116" t="n">
         <v>34.4</v>
@@ -2773,7 +2773,7 @@
         <v>124</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D117" t="n">
         <v>35.8</v>
@@ -2793,7 +2793,7 @@
         <v>162</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D118" t="n">
         <v>37.2</v>
@@ -2813,7 +2813,7 @@
         <v>110</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D119" t="n">
         <v>31.9</v>
@@ -2833,7 +2833,7 @@
         <v>91</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D120" t="n">
         <v>27.3</v>
@@ -2853,7 +2853,7 @@
         <v>115</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D121" t="n">
         <v>35.3</v>
@@ -2873,7 +2873,7 @@
         <v>105</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D122" t="n">
         <v>24.3</v>
@@ -2893,7 +2893,7 @@
         <v>100</v>
       </c>
       <c r="C123" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D123" t="n">
         <v>40.5</v>
@@ -2913,7 +2913,7 @@
         <v>119</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D124" t="n">
         <v>29</v>
@@ -2933,13 +2933,13 @@
         <v>90</v>
       </c>
       <c r="C125" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D125" t="n">
         <v>25.1</v>
       </c>
       <c r="E125" t="n">
-        <v>1.268</v>
+        <v>1.2</v>
       </c>
       <c r="F125" t="n">
         <v>25</v>
@@ -2953,7 +2953,7 @@
         <v>151</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D126" t="n">
         <v>26.1</v>
@@ -2973,7 +2973,7 @@
         <v>101</v>
       </c>
       <c r="C127" t="n">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="D127" t="n">
         <v>32.9</v>
@@ -2993,10 +2993,10 @@
         <v>115</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="E128" t="n">
         <v>0.261</v>
@@ -3013,13 +3013,13 @@
         <v>155</v>
       </c>
       <c r="C129" t="n">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="D129" t="n">
         <v>33.3</v>
       </c>
       <c r="E129" t="n">
-        <v>1.353</v>
+        <v>1.2</v>
       </c>
       <c r="F129" t="n">
         <v>51</v>
@@ -3033,10 +3033,10 @@
         <v>135</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D130" t="n">
-        <v>52.3</v>
+        <v>50.55</v>
       </c>
       <c r="E130" t="n">
         <v>0.578</v>
@@ -3053,7 +3053,7 @@
         <v>189</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D131" t="n">
         <v>28.5</v>
@@ -3073,7 +3073,7 @@
         <v>183</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D132" t="n">
         <v>23.3</v>
@@ -3093,7 +3093,7 @@
         <v>151</v>
       </c>
       <c r="C133" t="n">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="D133" t="n">
         <v>41.8</v>
@@ -3113,7 +3113,7 @@
         <v>109</v>
       </c>
       <c r="C134" t="n">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="D134" t="n">
         <v>25.4</v>
@@ -3133,7 +3133,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="n">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D135" t="n">
         <v>28.3</v>
@@ -3153,13 +3153,13 @@
         <v>181</v>
       </c>
       <c r="C136" t="n">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="D136" t="n">
         <v>40</v>
       </c>
       <c r="E136" t="n">
-        <v>1.258</v>
+        <v>1.2</v>
       </c>
       <c r="F136" t="n">
         <v>22</v>
@@ -3173,7 +3173,7 @@
         <v>102</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D137" t="n">
         <v>29.5</v>
@@ -3193,7 +3193,7 @@
         <v>120</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D138" t="n">
         <v>28.4</v>
@@ -3213,7 +3213,7 @@
         <v>158</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D139" t="n">
         <v>42.3</v>
@@ -3233,7 +3233,7 @@
         <v>150</v>
       </c>
       <c r="C140" t="n">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D140" t="n">
         <v>35.2</v>
@@ -3253,7 +3253,7 @@
         <v>68</v>
       </c>
       <c r="C141" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D141" t="n">
         <v>20.1</v>
@@ -3273,7 +3273,7 @@
         <v>112</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D142" t="n">
         <v>25</v>
@@ -3293,7 +3293,7 @@
         <v>90</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D143" t="n">
         <v>23.5</v>
@@ -3313,7 +3313,7 @@
         <v>139</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D144" t="n">
         <v>25.6</v>
@@ -3333,7 +3333,7 @@
         <v>139</v>
       </c>
       <c r="C145" t="n">
-        <v>480</v>
+        <v>62</v>
       </c>
       <c r="D145" t="n">
         <v>40.7</v>
@@ -3353,7 +3353,7 @@
         <v>93</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D146" t="n">
         <v>35.3</v>
@@ -3373,7 +3373,7 @@
         <v>84</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D147" t="n">
         <v>38.3</v>
@@ -3393,13 +3393,13 @@
         <v>85</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D148" t="n">
         <v>29</v>
       </c>
       <c r="E148" t="n">
-        <v>1.224</v>
+        <v>1.2</v>
       </c>
       <c r="F148" t="n">
         <v>32</v>
@@ -3413,7 +3413,7 @@
         <v>73</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D149" t="n">
         <v>23</v>
@@ -3433,7 +3433,7 @@
         <v>112</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D150" t="n">
         <v>39.4</v>
@@ -3453,7 +3453,7 @@
         <v>165</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D151" t="n">
         <v>30.4</v>
@@ -3479,7 +3479,7 @@
         <v>33.3</v>
       </c>
       <c r="E152" t="n">
-        <v>1.251</v>
+        <v>1.2</v>
       </c>
       <c r="F152" t="n">
         <v>24</v>
@@ -3493,7 +3493,7 @@
         <v>95</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D153" t="n">
         <v>36.8</v>
@@ -3513,7 +3513,7 @@
         <v>146</v>
       </c>
       <c r="C154" t="n">
-        <v>360</v>
+        <v>70</v>
       </c>
       <c r="D154" t="n">
         <v>28</v>
@@ -3533,7 +3533,7 @@
         <v>74</v>
       </c>
       <c r="C155" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D155" t="n">
         <v>35.3</v>
